--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/951365df988c7ade/Dokumente/Projekte/CoreCubeXY/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{5FFC8E7C-9E3A-4AC9-A117-E05293277430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4BC11E7-56B9-4676-81ED-DF61045518DE}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{5FFC8E7C-9E3A-4AC9-A117-E05293277430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07FCE0F5-BE64-4BBB-B344-7F5A45FFA14A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1920" windowWidth="29040" windowHeight="15840" xr2:uid="{2D41E5E2-D732-4181-9E0F-A5B3A379E0CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{2D41E5E2-D732-4181-9E0F-A5B3A379E0CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Printed Parts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
   <si>
     <t>3D Printed Parts</t>
   </si>
@@ -284,6 +284,21 @@
   </si>
   <si>
     <t xml:space="preserve">https://bit.ly/401JMJF </t>
+  </si>
+  <si>
+    <t>M3 Heatset inserts</t>
+  </si>
+  <si>
+    <t>20-30x</t>
+  </si>
+  <si>
+    <t>https://bit.ly/42sLghJ</t>
+  </si>
+  <si>
+    <t>M3 x 25</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3lkwgSp</t>
   </si>
 </sst>
 </file>
@@ -333,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -484,12 +499,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -519,6 +547,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,15 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -864,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F34F2E-1948-4890-9064-14600897FF20}">
   <dimension ref="B1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -876,11 +905,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
@@ -1175,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6820F4-FCFC-4EB9-969A-1E881B30BDE7}">
-  <dimension ref="B1:D25"/>
+  <dimension ref="B1:D27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,11 +1218,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
@@ -1213,7 +1242,7 @@
       <c r="C4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1224,7 +1253,7 @@
       <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1235,7 +1264,7 @@
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1246,7 +1275,7 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1257,7 +1286,7 @@
       <c r="C8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1268,7 +1297,7 @@
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1279,172 +1308,194 @@
       <c r="C10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>78</v>
+      <c r="D18" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>79</v>
+        <v>11</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="18" t="s">
+      <c r="C22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="5">
-        <v>4</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>60</v>
+      <c r="B23" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D26" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
+    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D27" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1453,27 +1504,29 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D22" r:id="rId1" display="https://www.myaluprofil.de/product_info.php?info=p4%7B1%7D25500%7B2%7D175%7B3%7D12%7B4%7D9%7B5%7D12_aluminiumprofil-20x20-nut-5--i-typ.html&amp;no_boost=1" xr:uid="{906E4C45-AB73-42B0-B30D-320F78196EF4}"/>
-    <hyperlink ref="D23" r:id="rId2" display="https://www.myaluprofil.de/product_info.php?info=p4%7B1%7D25500%7B2%7D175%7B3%7D12%7B4%7D9%7B5%7D12_aluminiumprofil-20x20-nut-5--i-typ.html&amp;no_boost=1" xr:uid="{EB3619CF-F6AD-445A-8D61-020D2DE1E06F}"/>
-    <hyperlink ref="D24" r:id="rId3" display="https://www.myaluprofil.de/slot-nut-with-bridge-slot-5-I-Type-M3.html" xr:uid="{B46965B9-2A35-4687-B4C7-24E1EF4DDB91}"/>
-    <hyperlink ref="D25" r:id="rId4" display="https://www.myaluprofil.de/slot-nut-with-bridge-slot-5-I-Type-M5.html" xr:uid="{D4F31CD1-DD65-41A2-9D62-572759BF9EBF}"/>
+    <hyperlink ref="D24" r:id="rId1" display="https://www.myaluprofil.de/product_info.php?info=p4%7B1%7D25500%7B2%7D175%7B3%7D12%7B4%7D9%7B5%7D12_aluminiumprofil-20x20-nut-5--i-typ.html&amp;no_boost=1" xr:uid="{906E4C45-AB73-42B0-B30D-320F78196EF4}"/>
+    <hyperlink ref="D25" r:id="rId2" display="https://www.myaluprofil.de/product_info.php?info=p4%7B1%7D25500%7B2%7D175%7B3%7D12%7B4%7D9%7B5%7D12_aluminiumprofil-20x20-nut-5--i-typ.html&amp;no_boost=1" xr:uid="{EB3619CF-F6AD-445A-8D61-020D2DE1E06F}"/>
+    <hyperlink ref="D26" r:id="rId3" display="https://www.myaluprofil.de/slot-nut-with-bridge-slot-5-I-Type-M3.html" xr:uid="{B46965B9-2A35-4687-B4C7-24E1EF4DDB91}"/>
+    <hyperlink ref="D27" r:id="rId4" display="https://www.myaluprofil.de/slot-nut-with-bridge-slot-5-I-Type-M5.html" xr:uid="{D4F31CD1-DD65-41A2-9D62-572759BF9EBF}"/>
     <hyperlink ref="D4" r:id="rId5" xr:uid="{F2396DB1-3396-45B7-9D71-F4A4BA053F9F}"/>
     <hyperlink ref="D10" r:id="rId6" xr:uid="{74073777-5B79-4B89-8CCB-CE6895EAB705}"/>
     <hyperlink ref="D9" r:id="rId7" xr:uid="{1C03DB28-EF72-4139-9B3D-920DD80EE1E1}"/>
     <hyperlink ref="D5" r:id="rId8" xr:uid="{20B6031B-B62E-457B-BFC6-366D98D0B5CF}"/>
     <hyperlink ref="D7" r:id="rId9" xr:uid="{6194DA3D-25E0-4FCA-9C9F-33763D8DA9EA}"/>
     <hyperlink ref="D8" r:id="rId10" xr:uid="{8F521867-3DB3-4D06-B6F0-9A7A9288E2E0}"/>
-    <hyperlink ref="D11" r:id="rId11" xr:uid="{C7F8801B-90D5-49E0-8120-90590A626892}"/>
-    <hyperlink ref="D12" r:id="rId12" xr:uid="{F3B26F02-A2DE-41A6-8144-13CD0FD7AA3C}"/>
-    <hyperlink ref="D13" r:id="rId13" xr:uid="{914778E4-A125-46DC-82F5-35DFFBD0FA4D}"/>
-    <hyperlink ref="D14" r:id="rId14" xr:uid="{F65DD261-F048-4C97-9F74-32F882831148}"/>
-    <hyperlink ref="D15" r:id="rId15" xr:uid="{8C1A5108-65C1-4518-8ACB-F35FC5AB69BD}"/>
-    <hyperlink ref="D16" r:id="rId16" xr:uid="{402F2E2C-5DAF-4C83-94E8-E1D67EA79F4F}"/>
-    <hyperlink ref="D17" r:id="rId17" xr:uid="{2DABFE0C-A0DB-4166-84FF-6FD510794DEE}"/>
-    <hyperlink ref="D18" r:id="rId18" xr:uid="{9202B721-F1A1-4DD8-8D44-8C518689DDDA}"/>
-    <hyperlink ref="D19" r:id="rId19" xr:uid="{88D80F08-8F40-440B-851A-940EB800F557}"/>
-    <hyperlink ref="D20" r:id="rId20" xr:uid="{D2FC3E8B-F5F4-4CF0-BA78-74C1009C8FC4}"/>
-    <hyperlink ref="D21" r:id="rId21" xr:uid="{F1D5A9CC-5869-4870-B1B7-B7A56839E884}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{C7F8801B-90D5-49E0-8120-90590A626892}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{F3B26F02-A2DE-41A6-8144-13CD0FD7AA3C}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{914778E4-A125-46DC-82F5-35DFFBD0FA4D}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{F65DD261-F048-4C97-9F74-32F882831148}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{8C1A5108-65C1-4518-8ACB-F35FC5AB69BD}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{402F2E2C-5DAF-4C83-94E8-E1D67EA79F4F}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{2DABFE0C-A0DB-4166-84FF-6FD510794DEE}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{9202B721-F1A1-4DD8-8D44-8C518689DDDA}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{88D80F08-8F40-440B-851A-940EB800F557}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{D2FC3E8B-F5F4-4CF0-BA78-74C1009C8FC4}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{F1D5A9CC-5869-4870-B1B7-B7A56839E884}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{B8887609-AB7A-4A2F-8473-4512FCD9ACA6}"/>
+    <hyperlink ref="D11" r:id="rId23" xr:uid="{8B083453-0DE3-4108-950E-68F0BD576E90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/951365df988c7ade/Dokumente/Projekte/CoreCubeXY/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{5FFC8E7C-9E3A-4AC9-A117-E05293277430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07FCE0F5-BE64-4BBB-B344-7F5A45FFA14A}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{5FFC8E7C-9E3A-4AC9-A117-E05293277430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{775D7365-D6F6-42D7-B200-F21B1D58BC5A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{2D41E5E2-D732-4181-9E0F-A5B3A379E0CA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
   <si>
     <t>3D Printed Parts</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>https://bit.ly/3lkwgSp</t>
+  </si>
+  <si>
+    <t>M5 Hex-Nut</t>
+  </si>
+  <si>
+    <t>M3 Hex-Nut</t>
   </si>
 </sst>
 </file>
@@ -517,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -556,6 +562,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -905,11 +912,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
@@ -1204,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6820F4-FCFC-4EB9-969A-1E881B30BDE7}">
-  <dimension ref="B1:D27"/>
+  <dimension ref="B1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,11 +1225,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
@@ -1336,178 +1343,201 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="C23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="C24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D25" s="15" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="5">
-        <v>4</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D28" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
+    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D29" s="17" t="s">
         <v>62</v>
       </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D24" r:id="rId1" display="https://www.myaluprofil.de/product_info.php?info=p4%7B1%7D25500%7B2%7D175%7B3%7D12%7B4%7D9%7B5%7D12_aluminiumprofil-20x20-nut-5--i-typ.html&amp;no_boost=1" xr:uid="{906E4C45-AB73-42B0-B30D-320F78196EF4}"/>
-    <hyperlink ref="D25" r:id="rId2" display="https://www.myaluprofil.de/product_info.php?info=p4%7B1%7D25500%7B2%7D175%7B3%7D12%7B4%7D9%7B5%7D12_aluminiumprofil-20x20-nut-5--i-typ.html&amp;no_boost=1" xr:uid="{EB3619CF-F6AD-445A-8D61-020D2DE1E06F}"/>
-    <hyperlink ref="D26" r:id="rId3" display="https://www.myaluprofil.de/slot-nut-with-bridge-slot-5-I-Type-M3.html" xr:uid="{B46965B9-2A35-4687-B4C7-24E1EF4DDB91}"/>
-    <hyperlink ref="D27" r:id="rId4" display="https://www.myaluprofil.de/slot-nut-with-bridge-slot-5-I-Type-M5.html" xr:uid="{D4F31CD1-DD65-41A2-9D62-572759BF9EBF}"/>
+    <hyperlink ref="D26" r:id="rId1" display="https://www.myaluprofil.de/product_info.php?info=p4%7B1%7D25500%7B2%7D175%7B3%7D12%7B4%7D9%7B5%7D12_aluminiumprofil-20x20-nut-5--i-typ.html&amp;no_boost=1" xr:uid="{906E4C45-AB73-42B0-B30D-320F78196EF4}"/>
+    <hyperlink ref="D27" r:id="rId2" display="https://www.myaluprofil.de/product_info.php?info=p4%7B1%7D25500%7B2%7D175%7B3%7D12%7B4%7D9%7B5%7D12_aluminiumprofil-20x20-nut-5--i-typ.html&amp;no_boost=1" xr:uid="{EB3619CF-F6AD-445A-8D61-020D2DE1E06F}"/>
+    <hyperlink ref="D28" r:id="rId3" display="https://www.myaluprofil.de/slot-nut-with-bridge-slot-5-I-Type-M3.html" xr:uid="{B46965B9-2A35-4687-B4C7-24E1EF4DDB91}"/>
+    <hyperlink ref="D29" r:id="rId4" display="https://www.myaluprofil.de/slot-nut-with-bridge-slot-5-I-Type-M5.html" xr:uid="{D4F31CD1-DD65-41A2-9D62-572759BF9EBF}"/>
     <hyperlink ref="D4" r:id="rId5" xr:uid="{F2396DB1-3396-45B7-9D71-F4A4BA053F9F}"/>
     <hyperlink ref="D10" r:id="rId6" xr:uid="{74073777-5B79-4B89-8CCB-CE6895EAB705}"/>
     <hyperlink ref="D9" r:id="rId7" xr:uid="{1C03DB28-EF72-4139-9B3D-920DD80EE1E1}"/>
@@ -1515,17 +1545,17 @@
     <hyperlink ref="D7" r:id="rId9" xr:uid="{6194DA3D-25E0-4FCA-9C9F-33763D8DA9EA}"/>
     <hyperlink ref="D8" r:id="rId10" xr:uid="{8F521867-3DB3-4D06-B6F0-9A7A9288E2E0}"/>
     <hyperlink ref="D12" r:id="rId11" xr:uid="{C7F8801B-90D5-49E0-8120-90590A626892}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{F3B26F02-A2DE-41A6-8144-13CD0FD7AA3C}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{914778E4-A125-46DC-82F5-35DFFBD0FA4D}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{F65DD261-F048-4C97-9F74-32F882831148}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{8C1A5108-65C1-4518-8ACB-F35FC5AB69BD}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{402F2E2C-5DAF-4C83-94E8-E1D67EA79F4F}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{2DABFE0C-A0DB-4166-84FF-6FD510794DEE}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{9202B721-F1A1-4DD8-8D44-8C518689DDDA}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{88D80F08-8F40-440B-851A-940EB800F557}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{D2FC3E8B-F5F4-4CF0-BA78-74C1009C8FC4}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{F1D5A9CC-5869-4870-B1B7-B7A56839E884}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{B8887609-AB7A-4A2F-8473-4512FCD9ACA6}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{F3B26F02-A2DE-41A6-8144-13CD0FD7AA3C}"/>
+    <hyperlink ref="D16" r:id="rId13" xr:uid="{914778E4-A125-46DC-82F5-35DFFBD0FA4D}"/>
+    <hyperlink ref="D17" r:id="rId14" xr:uid="{F65DD261-F048-4C97-9F74-32F882831148}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{8C1A5108-65C1-4518-8ACB-F35FC5AB69BD}"/>
+    <hyperlink ref="D19" r:id="rId16" xr:uid="{402F2E2C-5DAF-4C83-94E8-E1D67EA79F4F}"/>
+    <hyperlink ref="D20" r:id="rId17" xr:uid="{2DABFE0C-A0DB-4166-84FF-6FD510794DEE}"/>
+    <hyperlink ref="D21" r:id="rId18" xr:uid="{9202B721-F1A1-4DD8-8D44-8C518689DDDA}"/>
+    <hyperlink ref="D22" r:id="rId19" xr:uid="{88D80F08-8F40-440B-851A-940EB800F557}"/>
+    <hyperlink ref="D23" r:id="rId20" xr:uid="{D2FC3E8B-F5F4-4CF0-BA78-74C1009C8FC4}"/>
+    <hyperlink ref="D24" r:id="rId21" xr:uid="{F1D5A9CC-5869-4870-B1B7-B7A56839E884}"/>
+    <hyperlink ref="D25" r:id="rId22" xr:uid="{B8887609-AB7A-4A2F-8473-4512FCD9ACA6}"/>
     <hyperlink ref="D11" r:id="rId23" xr:uid="{8B083453-0DE3-4108-950E-68F0BD576E90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/951365df988c7ade/Dokumente/Projekte/CoreCubeXY/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{5FFC8E7C-9E3A-4AC9-A117-E05293277430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{775D7365-D6F6-42D7-B200-F21B1D58BC5A}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{5FFC8E7C-9E3A-4AC9-A117-E05293277430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87994CFB-4078-40BA-B6F7-4351B4876490}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{2D41E5E2-D732-4181-9E0F-A5B3A379E0CA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
   <si>
     <t>3D Printed Parts</t>
   </si>
@@ -305,6 +305,18 @@
   </si>
   <si>
     <t>M3 Hex-Nut</t>
+  </si>
+  <si>
+    <t>M5 x 25</t>
+  </si>
+  <si>
+    <t>M5 x 35</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3mTCXuP</t>
+  </si>
+  <si>
+    <t>https://bit.ly/403wvjG</t>
   </si>
 </sst>
 </file>
@@ -523,7 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -572,7 +584,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1211,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6820F4-FCFC-4EB9-969A-1E881B30BDE7}">
-  <dimension ref="B1:D30"/>
+  <dimension ref="B1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,183 +1372,200 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D22" s="15" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="C25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="C26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D27" s="15" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="5">
-        <v>4</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="5">
+        <v>4</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D30" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
+    <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D31" s="17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D26" r:id="rId1" display="https://www.myaluprofil.de/product_info.php?info=p4%7B1%7D25500%7B2%7D175%7B3%7D12%7B4%7D9%7B5%7D12_aluminiumprofil-20x20-nut-5--i-typ.html&amp;no_boost=1" xr:uid="{906E4C45-AB73-42B0-B30D-320F78196EF4}"/>
-    <hyperlink ref="D27" r:id="rId2" display="https://www.myaluprofil.de/product_info.php?info=p4%7B1%7D25500%7B2%7D175%7B3%7D12%7B4%7D9%7B5%7D12_aluminiumprofil-20x20-nut-5--i-typ.html&amp;no_boost=1" xr:uid="{EB3619CF-F6AD-445A-8D61-020D2DE1E06F}"/>
-    <hyperlink ref="D28" r:id="rId3" display="https://www.myaluprofil.de/slot-nut-with-bridge-slot-5-I-Type-M3.html" xr:uid="{B46965B9-2A35-4687-B4C7-24E1EF4DDB91}"/>
-    <hyperlink ref="D29" r:id="rId4" display="https://www.myaluprofil.de/slot-nut-with-bridge-slot-5-I-Type-M5.html" xr:uid="{D4F31CD1-DD65-41A2-9D62-572759BF9EBF}"/>
+    <hyperlink ref="D28" r:id="rId1" display="https://www.myaluprofil.de/product_info.php?info=p4%7B1%7D25500%7B2%7D175%7B3%7D12%7B4%7D9%7B5%7D12_aluminiumprofil-20x20-nut-5--i-typ.html&amp;no_boost=1" xr:uid="{906E4C45-AB73-42B0-B30D-320F78196EF4}"/>
+    <hyperlink ref="D29" r:id="rId2" display="https://www.myaluprofil.de/product_info.php?info=p4%7B1%7D25500%7B2%7D175%7B3%7D12%7B4%7D9%7B5%7D12_aluminiumprofil-20x20-nut-5--i-typ.html&amp;no_boost=1" xr:uid="{EB3619CF-F6AD-445A-8D61-020D2DE1E06F}"/>
+    <hyperlink ref="D30" r:id="rId3" display="https://www.myaluprofil.de/slot-nut-with-bridge-slot-5-I-Type-M3.html" xr:uid="{B46965B9-2A35-4687-B4C7-24E1EF4DDB91}"/>
+    <hyperlink ref="D31" r:id="rId4" display="https://www.myaluprofil.de/slot-nut-with-bridge-slot-5-I-Type-M5.html" xr:uid="{D4F31CD1-DD65-41A2-9D62-572759BF9EBF}"/>
     <hyperlink ref="D4" r:id="rId5" xr:uid="{F2396DB1-3396-45B7-9D71-F4A4BA053F9F}"/>
     <hyperlink ref="D10" r:id="rId6" xr:uid="{74073777-5B79-4B89-8CCB-CE6895EAB705}"/>
     <hyperlink ref="D9" r:id="rId7" xr:uid="{1C03DB28-EF72-4139-9B3D-920DD80EE1E1}"/>
@@ -1545,17 +1573,17 @@
     <hyperlink ref="D7" r:id="rId9" xr:uid="{6194DA3D-25E0-4FCA-9C9F-33763D8DA9EA}"/>
     <hyperlink ref="D8" r:id="rId10" xr:uid="{8F521867-3DB3-4D06-B6F0-9A7A9288E2E0}"/>
     <hyperlink ref="D12" r:id="rId11" xr:uid="{C7F8801B-90D5-49E0-8120-90590A626892}"/>
-    <hyperlink ref="D15" r:id="rId12" xr:uid="{F3B26F02-A2DE-41A6-8144-13CD0FD7AA3C}"/>
-    <hyperlink ref="D16" r:id="rId13" xr:uid="{914778E4-A125-46DC-82F5-35DFFBD0FA4D}"/>
-    <hyperlink ref="D17" r:id="rId14" xr:uid="{F65DD261-F048-4C97-9F74-32F882831148}"/>
-    <hyperlink ref="D18" r:id="rId15" xr:uid="{8C1A5108-65C1-4518-8ACB-F35FC5AB69BD}"/>
-    <hyperlink ref="D19" r:id="rId16" xr:uid="{402F2E2C-5DAF-4C83-94E8-E1D67EA79F4F}"/>
-    <hyperlink ref="D20" r:id="rId17" xr:uid="{2DABFE0C-A0DB-4166-84FF-6FD510794DEE}"/>
-    <hyperlink ref="D21" r:id="rId18" xr:uid="{9202B721-F1A1-4DD8-8D44-8C518689DDDA}"/>
-    <hyperlink ref="D22" r:id="rId19" xr:uid="{88D80F08-8F40-440B-851A-940EB800F557}"/>
-    <hyperlink ref="D23" r:id="rId20" xr:uid="{D2FC3E8B-F5F4-4CF0-BA78-74C1009C8FC4}"/>
-    <hyperlink ref="D24" r:id="rId21" xr:uid="{F1D5A9CC-5869-4870-B1B7-B7A56839E884}"/>
-    <hyperlink ref="D25" r:id="rId22" xr:uid="{B8887609-AB7A-4A2F-8473-4512FCD9ACA6}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{F3B26F02-A2DE-41A6-8144-13CD0FD7AA3C}"/>
+    <hyperlink ref="D18" r:id="rId13" xr:uid="{914778E4-A125-46DC-82F5-35DFFBD0FA4D}"/>
+    <hyperlink ref="D19" r:id="rId14" xr:uid="{F65DD261-F048-4C97-9F74-32F882831148}"/>
+    <hyperlink ref="D20" r:id="rId15" xr:uid="{8C1A5108-65C1-4518-8ACB-F35FC5AB69BD}"/>
+    <hyperlink ref="D21" r:id="rId16" xr:uid="{402F2E2C-5DAF-4C83-94E8-E1D67EA79F4F}"/>
+    <hyperlink ref="D22" r:id="rId17" xr:uid="{2DABFE0C-A0DB-4166-84FF-6FD510794DEE}"/>
+    <hyperlink ref="D23" r:id="rId18" xr:uid="{9202B721-F1A1-4DD8-8D44-8C518689DDDA}"/>
+    <hyperlink ref="D24" r:id="rId19" xr:uid="{88D80F08-8F40-440B-851A-940EB800F557}"/>
+    <hyperlink ref="D25" r:id="rId20" xr:uid="{D2FC3E8B-F5F4-4CF0-BA78-74C1009C8FC4}"/>
+    <hyperlink ref="D26" r:id="rId21" xr:uid="{F1D5A9CC-5869-4870-B1B7-B7A56839E884}"/>
+    <hyperlink ref="D27" r:id="rId22" xr:uid="{B8887609-AB7A-4A2F-8473-4512FCD9ACA6}"/>
     <hyperlink ref="D11" r:id="rId23" xr:uid="{8B083453-0DE3-4108-950E-68F0BD576E90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/951365df988c7ade/Dokumente/Projekte/CoreCubeXY/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{5FFC8E7C-9E3A-4AC9-A117-E05293277430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87994CFB-4078-40BA-B6F7-4351B4876490}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{5FFC8E7C-9E3A-4AC9-A117-E05293277430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98517C9F-3808-4F6D-9A03-8E03265F2CAB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{2D41E5E2-D732-4181-9E0F-A5B3A379E0CA}"/>
+    <workbookView xWindow="-28920" yWindow="-1920" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2D41E5E2-D732-4181-9E0F-A5B3A379E0CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Printed Parts" sheetId="1" r:id="rId1"/>
@@ -166,12 +166,6 @@
     <t>3010 24v Fan</t>
   </si>
   <si>
-    <t>MGN9H</t>
-  </si>
-  <si>
-    <t>MGN12C</t>
-  </si>
-  <si>
     <t>Glas Bed 180x180</t>
   </si>
   <si>
@@ -317,6 +311,12 @@
   </si>
   <si>
     <t>https://bit.ly/403wvjG</t>
+  </si>
+  <si>
+    <t>MGN9H (min 200mm/ max 250mm)</t>
+  </si>
+  <si>
+    <t>MGN12C 200mm</t>
   </si>
 </sst>
 </file>
@@ -1225,12 +1225,12 @@
   <dimension ref="B1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1255,24 +1255,24 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -1283,29 +1283,29 @@
         <v>5</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -1324,21 +1324,21 @@
         <v>36</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -1346,50 +1346,50 @@
         <v>37</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -1400,18 +1400,18 @@
         <v>5</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -1433,7 +1433,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -1444,117 +1444,117 @@
         <v>5</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" s="5">
         <v>4</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/951365df988c7ade/Dokumente/Projekte/CoreCubeXY/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{5FFC8E7C-9E3A-4AC9-A117-E05293277430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{292437FE-79F5-43E2-9DF1-F5A05957A451}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{5FFC8E7C-9E3A-4AC9-A117-E05293277430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F252D08E-D5C8-4883-B059-4F407A096B05}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1920" windowWidth="29040" windowHeight="15840" xr2:uid="{2D41E5E2-D732-4181-9E0F-A5B3A379E0CA}"/>
+    <workbookView xWindow="-28920" yWindow="-1920" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2D41E5E2-D732-4181-9E0F-A5B3A379E0CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Printed Parts" sheetId="1" r:id="rId1"/>
@@ -217,12 +217,6 @@
     <t>myaluprofil - Aluminum profile 20x20 Groove 5 I-Type</t>
   </si>
   <si>
-    <t>myaluprofil - slot nut with bridge slot 5 I-Type M3</t>
-  </si>
-  <si>
-    <t>myaluprofil - slot nut with bridge slot 5 I-Type M5</t>
-  </si>
-  <si>
     <t>40x</t>
   </si>
   <si>
@@ -320,6 +314,12 @@
   </si>
   <si>
     <t>Spacer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/44A0dPw </t>
+  </si>
+  <si>
+    <t>https://bit.ly/3qbo0WZ</t>
   </si>
 </sst>
 </file>
@@ -609,6 +609,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -910,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F34F2E-1948-4890-9064-14600897FF20}">
   <dimension ref="B1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1084,7 +1088,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>27</v>
@@ -1232,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6820F4-FCFC-4EB9-969A-1E881B30BDE7}">
   <dimension ref="B1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1273,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -1280,7 +1284,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -1291,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -1302,7 +1306,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -1313,7 +1317,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -1324,7 +1328,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -1335,18 +1339,18 @@
         <v>46</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -1357,12 +1361,12 @@
         <v>46</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>45</v>
@@ -1371,7 +1375,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>45</v>
@@ -1380,24 +1384,24 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -1408,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -1419,7 +1423,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -1430,7 +1434,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -1441,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -1452,7 +1456,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -1463,29 +1467,29 @@
         <v>11</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -1496,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -1507,18 +1511,18 @@
         <v>5</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -1548,10 +1552,10 @@
         <v>48</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1559,10 +1563,10 @@
         <v>49</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1572,27 +1576,26 @@
   <hyperlinks>
     <hyperlink ref="D28" r:id="rId1" display="https://www.myaluprofil.de/product_info.php?info=p4%7B1%7D25500%7B2%7D175%7B3%7D12%7B4%7D9%7B5%7D12_aluminiumprofil-20x20-nut-5--i-typ.html&amp;no_boost=1" xr:uid="{906E4C45-AB73-42B0-B30D-320F78196EF4}"/>
     <hyperlink ref="D29" r:id="rId2" display="https://www.myaluprofil.de/product_info.php?info=p4%7B1%7D25500%7B2%7D175%7B3%7D12%7B4%7D9%7B5%7D12_aluminiumprofil-20x20-nut-5--i-typ.html&amp;no_boost=1" xr:uid="{EB3619CF-F6AD-445A-8D61-020D2DE1E06F}"/>
-    <hyperlink ref="D30" r:id="rId3" display="https://www.myaluprofil.de/slot-nut-with-bridge-slot-5-I-Type-M3.html" xr:uid="{B46965B9-2A35-4687-B4C7-24E1EF4DDB91}"/>
-    <hyperlink ref="D31" r:id="rId4" display="https://www.myaluprofil.de/slot-nut-with-bridge-slot-5-I-Type-M5.html" xr:uid="{D4F31CD1-DD65-41A2-9D62-572759BF9EBF}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{F2396DB1-3396-45B7-9D71-F4A4BA053F9F}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{74073777-5B79-4B89-8CCB-CE6895EAB705}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{1C03DB28-EF72-4139-9B3D-920DD80EE1E1}"/>
-    <hyperlink ref="D5" r:id="rId8" xr:uid="{20B6031B-B62E-457B-BFC6-366D98D0B5CF}"/>
-    <hyperlink ref="D7" r:id="rId9" xr:uid="{6194DA3D-25E0-4FCA-9C9F-33763D8DA9EA}"/>
-    <hyperlink ref="D8" r:id="rId10" xr:uid="{8F521867-3DB3-4D06-B6F0-9A7A9288E2E0}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{C7F8801B-90D5-49E0-8120-90590A626892}"/>
-    <hyperlink ref="D17" r:id="rId12" xr:uid="{F3B26F02-A2DE-41A6-8144-13CD0FD7AA3C}"/>
-    <hyperlink ref="D18" r:id="rId13" xr:uid="{914778E4-A125-46DC-82F5-35DFFBD0FA4D}"/>
-    <hyperlink ref="D19" r:id="rId14" xr:uid="{F65DD261-F048-4C97-9F74-32F882831148}"/>
-    <hyperlink ref="D20" r:id="rId15" xr:uid="{8C1A5108-65C1-4518-8ACB-F35FC5AB69BD}"/>
-    <hyperlink ref="D21" r:id="rId16" xr:uid="{402F2E2C-5DAF-4C83-94E8-E1D67EA79F4F}"/>
-    <hyperlink ref="D22" r:id="rId17" xr:uid="{2DABFE0C-A0DB-4166-84FF-6FD510794DEE}"/>
-    <hyperlink ref="D23" r:id="rId18" xr:uid="{9202B721-F1A1-4DD8-8D44-8C518689DDDA}"/>
-    <hyperlink ref="D24" r:id="rId19" xr:uid="{88D80F08-8F40-440B-851A-940EB800F557}"/>
-    <hyperlink ref="D25" r:id="rId20" xr:uid="{D2FC3E8B-F5F4-4CF0-BA78-74C1009C8FC4}"/>
-    <hyperlink ref="D26" r:id="rId21" xr:uid="{F1D5A9CC-5869-4870-B1B7-B7A56839E884}"/>
-    <hyperlink ref="D27" r:id="rId22" xr:uid="{B8887609-AB7A-4A2F-8473-4512FCD9ACA6}"/>
-    <hyperlink ref="D11" r:id="rId23" xr:uid="{8B083453-0DE3-4108-950E-68F0BD576E90}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{F2396DB1-3396-45B7-9D71-F4A4BA053F9F}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{74073777-5B79-4B89-8CCB-CE6895EAB705}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{1C03DB28-EF72-4139-9B3D-920DD80EE1E1}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{20B6031B-B62E-457B-BFC6-366D98D0B5CF}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{6194DA3D-25E0-4FCA-9C9F-33763D8DA9EA}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{8F521867-3DB3-4D06-B6F0-9A7A9288E2E0}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{C7F8801B-90D5-49E0-8120-90590A626892}"/>
+    <hyperlink ref="D17" r:id="rId10" xr:uid="{F3B26F02-A2DE-41A6-8144-13CD0FD7AA3C}"/>
+    <hyperlink ref="D18" r:id="rId11" xr:uid="{914778E4-A125-46DC-82F5-35DFFBD0FA4D}"/>
+    <hyperlink ref="D19" r:id="rId12" xr:uid="{F65DD261-F048-4C97-9F74-32F882831148}"/>
+    <hyperlink ref="D20" r:id="rId13" xr:uid="{8C1A5108-65C1-4518-8ACB-F35FC5AB69BD}"/>
+    <hyperlink ref="D21" r:id="rId14" xr:uid="{402F2E2C-5DAF-4C83-94E8-E1D67EA79F4F}"/>
+    <hyperlink ref="D22" r:id="rId15" xr:uid="{2DABFE0C-A0DB-4166-84FF-6FD510794DEE}"/>
+    <hyperlink ref="D23" r:id="rId16" xr:uid="{9202B721-F1A1-4DD8-8D44-8C518689DDDA}"/>
+    <hyperlink ref="D24" r:id="rId17" xr:uid="{88D80F08-8F40-440B-851A-940EB800F557}"/>
+    <hyperlink ref="D25" r:id="rId18" xr:uid="{D2FC3E8B-F5F4-4CF0-BA78-74C1009C8FC4}"/>
+    <hyperlink ref="D26" r:id="rId19" xr:uid="{F1D5A9CC-5869-4870-B1B7-B7A56839E884}"/>
+    <hyperlink ref="D27" r:id="rId20" xr:uid="{B8887609-AB7A-4A2F-8473-4512FCD9ACA6}"/>
+    <hyperlink ref="D11" r:id="rId21" xr:uid="{8B083453-0DE3-4108-950E-68F0BD576E90}"/>
+    <hyperlink ref="D31" r:id="rId22" xr:uid="{7244E367-3733-402F-A65C-44E47E56C83E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
